--- a/StudentsProject/WWWProject/01Requirement/用户场景说明书1.xlsx
+++ b/StudentsProject/WWWProject/01Requirement/用户场景说明书1.xlsx
@@ -119,10 +119,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1.用户点击“打开文件”按钮，弹出路径选择对话框，选择之前保存的txt文件，</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>保存学生成绩的txt文件”。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -132,6 +128,10 @@
   </si>
   <si>
     <t>文件”。若用户选择的txt文件不是之前保存成绩的txt文件，则提示“请选择</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.用户点击“打开文件”按钮，弹出路径选择对话框11，选择之前保存的txt文件，</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -346,10 +346,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -373,15 +373,15 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>257175</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>94696</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>75646</xdr:colOff>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>75779</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -399,8 +399,46 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="857250" y="1162050"/>
+          <a:off x="238125" y="1504950"/>
           <a:ext cx="4504771" cy="3371429"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>28307</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>133191</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="图片 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3952875" y="1771650"/>
+          <a:ext cx="2142857" cy="1276191"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -702,7 +740,7 @@
   <dimension ref="A1:BE83"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="AE22" sqref="AE22"/>
+      <selection activeCell="AD23" sqref="AD23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -715,146 +753,146 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:57" x14ac:dyDescent="0.15">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="17" t="s">
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
-      <c r="K1" s="18" t="s">
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
+      <c r="K1" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="L1" s="18"/>
-      <c r="M1" s="18"/>
-      <c r="N1" s="18"/>
-      <c r="O1" s="17" t="s">
+      <c r="L1" s="17"/>
+      <c r="M1" s="17"/>
+      <c r="N1" s="17"/>
+      <c r="O1" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="P1" s="17"/>
-      <c r="Q1" s="17"/>
-      <c r="R1" s="17"/>
-      <c r="S1" s="17"/>
-      <c r="T1" s="17"/>
-      <c r="U1" s="17"/>
-      <c r="V1" s="17"/>
-      <c r="W1" s="17"/>
-      <c r="X1" s="18" t="s">
+      <c r="P1" s="18"/>
+      <c r="Q1" s="18"/>
+      <c r="R1" s="18"/>
+      <c r="S1" s="18"/>
+      <c r="T1" s="18"/>
+      <c r="U1" s="18"/>
+      <c r="V1" s="18"/>
+      <c r="W1" s="18"/>
+      <c r="X1" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="Y1" s="18"/>
-      <c r="Z1" s="18"/>
-      <c r="AA1" s="18"/>
-      <c r="AB1" s="17" t="s">
+      <c r="Y1" s="17"/>
+      <c r="Z1" s="17"/>
+      <c r="AA1" s="17"/>
+      <c r="AB1" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="AC1" s="17"/>
-      <c r="AD1" s="17"/>
-      <c r="AE1" s="17"/>
-      <c r="AF1" s="17"/>
-      <c r="AG1" s="17"/>
-      <c r="AH1" s="17"/>
-      <c r="AI1" s="18" t="s">
+      <c r="AC1" s="18"/>
+      <c r="AD1" s="18"/>
+      <c r="AE1" s="18"/>
+      <c r="AF1" s="18"/>
+      <c r="AG1" s="18"/>
+      <c r="AH1" s="18"/>
+      <c r="AI1" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="AJ1" s="18"/>
-      <c r="AK1" s="18"/>
-      <c r="AL1" s="18"/>
-      <c r="AM1" s="17" t="s">
+      <c r="AJ1" s="17"/>
+      <c r="AK1" s="17"/>
+      <c r="AL1" s="17"/>
+      <c r="AM1" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="AN1" s="17"/>
-      <c r="AO1" s="17"/>
-      <c r="AP1" s="17"/>
-      <c r="AQ1" s="17"/>
-      <c r="AR1" s="17"/>
-      <c r="AS1" s="17"/>
+      <c r="AN1" s="18"/>
+      <c r="AO1" s="18"/>
+      <c r="AP1" s="18"/>
+      <c r="AQ1" s="18"/>
+      <c r="AR1" s="18"/>
+      <c r="AS1" s="18"/>
       <c r="AT1" s="19"/>
       <c r="AU1" s="19"/>
       <c r="AV1" s="19"/>
       <c r="AW1" s="19"/>
-      <c r="AX1" s="17"/>
-      <c r="AY1" s="17"/>
-      <c r="AZ1" s="17"/>
-      <c r="BA1" s="17"/>
-      <c r="BB1" s="17"/>
-      <c r="BC1" s="17"/>
+      <c r="AX1" s="18"/>
+      <c r="AY1" s="18"/>
+      <c r="AZ1" s="18"/>
+      <c r="BA1" s="18"/>
+      <c r="BB1" s="18"/>
+      <c r="BC1" s="18"/>
       <c r="BD1" s="4"/>
       <c r="BE1" s="2"/>
     </row>
     <row r="2" spans="1:57" x14ac:dyDescent="0.15">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="17" t="s">
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17"/>
-      <c r="I2" s="17"/>
-      <c r="J2" s="17"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="18"/>
       <c r="K2" s="19"/>
       <c r="L2" s="19"/>
       <c r="M2" s="19"/>
       <c r="N2" s="19"/>
-      <c r="O2" s="17"/>
-      <c r="P2" s="17"/>
-      <c r="Q2" s="17"/>
-      <c r="R2" s="17"/>
-      <c r="S2" s="17"/>
-      <c r="T2" s="17"/>
-      <c r="U2" s="17"/>
-      <c r="V2" s="17"/>
-      <c r="W2" s="17"/>
+      <c r="O2" s="18"/>
+      <c r="P2" s="18"/>
+      <c r="Q2" s="18"/>
+      <c r="R2" s="18"/>
+      <c r="S2" s="18"/>
+      <c r="T2" s="18"/>
+      <c r="U2" s="18"/>
+      <c r="V2" s="18"/>
+      <c r="W2" s="18"/>
       <c r="X2" s="19"/>
       <c r="Y2" s="19"/>
       <c r="Z2" s="19"/>
       <c r="AA2" s="19"/>
-      <c r="AB2" s="17"/>
-      <c r="AC2" s="17"/>
-      <c r="AD2" s="17"/>
-      <c r="AE2" s="17"/>
-      <c r="AF2" s="17"/>
-      <c r="AG2" s="17"/>
-      <c r="AH2" s="17"/>
-      <c r="AI2" s="18" t="s">
+      <c r="AB2" s="18"/>
+      <c r="AC2" s="18"/>
+      <c r="AD2" s="18"/>
+      <c r="AE2" s="18"/>
+      <c r="AF2" s="18"/>
+      <c r="AG2" s="18"/>
+      <c r="AH2" s="18"/>
+      <c r="AI2" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="AJ2" s="18"/>
-      <c r="AK2" s="18"/>
-      <c r="AL2" s="18"/>
-      <c r="AM2" s="17" t="s">
+      <c r="AJ2" s="17"/>
+      <c r="AK2" s="17"/>
+      <c r="AL2" s="17"/>
+      <c r="AM2" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="AN2" s="17"/>
-      <c r="AO2" s="17"/>
-      <c r="AP2" s="17"/>
-      <c r="AQ2" s="17"/>
-      <c r="AR2" s="17"/>
-      <c r="AS2" s="17"/>
-      <c r="AT2" s="18" t="s">
+      <c r="AN2" s="18"/>
+      <c r="AO2" s="18"/>
+      <c r="AP2" s="18"/>
+      <c r="AQ2" s="18"/>
+      <c r="AR2" s="18"/>
+      <c r="AS2" s="18"/>
+      <c r="AT2" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="AU2" s="18"/>
-      <c r="AV2" s="18"/>
-      <c r="AW2" s="18"/>
-      <c r="AX2" s="17"/>
-      <c r="AY2" s="17"/>
-      <c r="AZ2" s="17"/>
-      <c r="BA2" s="17"/>
-      <c r="BB2" s="17"/>
-      <c r="BC2" s="17"/>
+      <c r="AU2" s="17"/>
+      <c r="AV2" s="17"/>
+      <c r="AW2" s="17"/>
+      <c r="AX2" s="18"/>
+      <c r="AY2" s="18"/>
+      <c r="AZ2" s="18"/>
+      <c r="BA2" s="18"/>
+      <c r="BB2" s="18"/>
+      <c r="BC2" s="18"/>
       <c r="BD2" s="4"/>
       <c r="BE2" s="2"/>
     </row>
@@ -1072,7 +1110,7 @@
       </c>
       <c r="AE6"/>
       <c r="AF6" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="AG6"/>
       <c r="AH6"/>
@@ -1134,7 +1172,7 @@
       <c r="AE7"/>
       <c r="AF7"/>
       <c r="AG7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AH7"/>
       <c r="AI7"/>
@@ -1195,7 +1233,7 @@
       <c r="AE8"/>
       <c r="AF8"/>
       <c r="AG8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AH8"/>
       <c r="AI8"/>
@@ -1256,7 +1294,7 @@
       <c r="AE9"/>
       <c r="AF9"/>
       <c r="AG9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AH9"/>
       <c r="AI9"/>
@@ -5581,14 +5619,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="AI2:AL2"/>
-    <mergeCell ref="AM2:AS2"/>
-    <mergeCell ref="AT2:AW2"/>
-    <mergeCell ref="AX2:BC2"/>
-    <mergeCell ref="AI1:AL1"/>
-    <mergeCell ref="AM1:AS1"/>
-    <mergeCell ref="AT1:AW1"/>
-    <mergeCell ref="AX1:BC1"/>
     <mergeCell ref="AB2:AH2"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="D1:J1"/>
@@ -5601,6 +5631,14 @@
     <mergeCell ref="K2:N2"/>
     <mergeCell ref="O2:W2"/>
     <mergeCell ref="X2:AA2"/>
+    <mergeCell ref="AI2:AL2"/>
+    <mergeCell ref="AM2:AS2"/>
+    <mergeCell ref="AT2:AW2"/>
+    <mergeCell ref="AX2:BC2"/>
+    <mergeCell ref="AI1:AL1"/>
+    <mergeCell ref="AM1:AS1"/>
+    <mergeCell ref="AT1:AW1"/>
+    <mergeCell ref="AX1:BC1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
